--- a/biology/Botanique/Cytisus/Cytisus.xlsx
+++ b/biology/Botanique/Cytisus/Cytisus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cytisus est un genre de plantes de la famille des Fabaceae (Légumineuses).
 Ses espèces sont généralement appelées « genêts » ou « cytises ».
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom latin Cytisus (également cytisum), en grec kytisos, désignait un arbrisseau de la famille des Fabaceae, peut-être la luzerne arborescente, Medicago arborea[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom latin Cytisus (également cytisum), en grec kytisos, désignait un arbrisseau de la famille des Fabaceae, peut-être la luzerne arborescente, Medicago arborea.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Caractéristiques botaniques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les cytises sont des arbrisseaux ou sous-arbrisseaux dépourvus d'épines. Les feuilles simples sont le plus souvent réduites à trois folioles, parfois rapidement caduques. Le calice gamosépale est bilabié (deux lèvres dont la supérieure à deux dents ou tronquée, l'inférieure à trois dents). Le fruit est une gousse linéaire ou oblongue contenant de nombreuses graines[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cytises sont des arbrisseaux ou sous-arbrisseaux dépourvus d'épines. Les feuilles simples sont le plus souvent réduites à trois folioles, parfois rapidement caduques. Le calice gamosépale est bilabié (deux lèvres dont la supérieure à deux dents ou tronquée, l'inférieure à trois dents). Le fruit est une gousse linéaire ou oblongue contenant de nombreuses graines.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cytisus aeolicus Guss. ex Lindl.
 Cytisus arboreus (Desf.) DC.
@@ -605,7 +623,7 @@
 Cytisus valdesii Talavera &amp; P.E.Gibbs
 Cytisus villosus Pourr.
 Cytisus virescens Wohlf.
-Selon Catalogue of Life[3] :
+Selon Catalogue of Life :
 Cytisus acutangulus
 Cytisus aeolicus
 Cytisus agnipilus
@@ -697,7 +715,9 @@
           <t>Espèces déplacées vers d'autres genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour Cytisus laburnum L., voir Laburnum anagyroides Medik.
 Pour Cytisus sessilifolius L., voir Cytisophyllum sessilifolium (L.) O.Lang
